--- a/data/trans_orig/CONS_TIR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TIR-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en País Vasco</t>
+          <t>Consumo de medicamentos para la tiroides en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en Andalucia</t>
+          <t>Consumo de medicamentos para la tiroides en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en C.Valenciana</t>
+          <t>Consumo de medicamentos para la tiroides en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_TIR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TIR-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>568</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1830</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7635</t>
+          <t>8985</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5472</t>
+          <t>6668</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9813</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8517</t>
+          <t>10313</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6577</t>
+          <t>7617</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11023</t>
+          <t>13312</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>144927</t>
+          <t>161474</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>143980</t>
+          <t>160158</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>145430</t>
+          <t>162233</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>135256</t>
+          <t>159582</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>133078</t>
+          <t>156753</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>137419</t>
+          <t>161899</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>280184</t>
+          <t>321055</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>277678</t>
+          <t>318056</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>282124</t>
+          <t>323751</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>97,7%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>604</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3064</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9539</t>
+          <t>9973</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7129</t>
+          <t>7553</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12352</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10979</t>
+          <t>11354</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>8307</t>
+          <t>8844</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>14304</t>
+          <t>14398</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79732</t>
+          <t>89044</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>78108</t>
+          <t>87359</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80561</t>
+          <t>89821</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>99578</t>
+          <t>112695</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>96765</t>
+          <t>109768</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>101988</t>
+          <t>115115</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>179310</t>
+          <t>201739</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>175985</t>
+          <t>198695</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>181982</t>
+          <t>204249</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>95,85%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2070</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>918</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3835</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6417</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4251</t>
+          <t>4490</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8241</t>
+          <t>9183</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>8170</t>
+          <t>8306</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5931</t>
+          <t>6081</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>11201</t>
+          <t>11320</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,25%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>161786</t>
+          <t>151995</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>160021</t>
+          <t>150447</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>162812</t>
+          <t>152966</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57045</t>
+          <t>55200</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>54904</t>
+          <t>52434</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58894</t>
+          <t>57127</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,34%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>85,1%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>218831</t>
+          <t>207195</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>215800</t>
+          <t>204181</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>221070</t>
+          <t>209420</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>97,18%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13179</t>
+          <t>10208</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9852</t>
+          <t>7977</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16542</t>
+          <t>13083</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>15754</t>
+          <t>13316</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>12529</t>
+          <t>10540</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>20076</t>
+          <t>16683</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>167513</t>
+          <t>166611</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>165654</t>
+          <t>164515</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>168615</t>
+          <t>167915</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>164004</t>
+          <t>171982</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>160641</t>
+          <t>169107</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>167331</t>
+          <t>174213</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>331517</t>
+          <t>338593</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>327195</t>
+          <t>335226</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>334742</t>
+          <t>341369</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>97,0%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>465</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12099</t>
+          <t>11033</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9380</t>
+          <t>8572</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15364</t>
+          <t>13874</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>13384</t>
+          <t>12209</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>10483</t>
+          <t>9239</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>16867</t>
+          <t>15267</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>7,64%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75565</t>
+          <t>73274</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73935</t>
+          <t>72130</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>76347</t>
+          <t>73986</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>120833</t>
+          <t>114383</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>117568</t>
+          <t>111542</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>123552</t>
+          <t>116844</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>88,94%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>196399</t>
+          <t>187658</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>192916</t>
+          <t>184600</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>199300</t>
+          <t>190628</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>95,38%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>597</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>2173</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6251</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4405</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8638</t>
+          <t>8312</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>6860</t>
+          <t>6837</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4825</t>
+          <t>4928</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>9334</t>
+          <t>9052</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44653</t>
+          <t>55006</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43505</t>
+          <t>53430</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45118</t>
+          <t>55535</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>99,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>112026</t>
+          <t>116361</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>109639</t>
+          <t>114289</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>113872</t>
+          <t>118071</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>156678</t>
+          <t>171367</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>154204</t>
+          <t>169152</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>158713</t>
+          <t>173276</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>97,23%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8863</t>
+          <t>9479</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6536</t>
+          <t>6997</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12278</t>
+          <t>12431</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>54802</t>
+          <t>52857</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>48653</t>
+          <t>47178</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>61410</t>
+          <t>59201</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>63665</t>
+          <t>62336</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>56692</t>
+          <t>55876</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>71210</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>674176</t>
+          <t>697404</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>670761</t>
+          <t>694452</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>676503</t>
+          <t>699886</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>688742</t>
+          <t>730202</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>682134</t>
+          <t>723858</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>694891</t>
+          <t>735881</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1362918</t>
+          <t>1427605</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1355373</t>
+          <t>1420839</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1369891</t>
+          <t>1434065</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>96,25%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9411</t>
+          <t>9165</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20373</t>
+          <t>19845</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>36646</t>
+          <t>36797</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>22722</t>
+          <t>22867</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>41807</t>
+          <t>40687</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>357272</t>
+          <t>357518</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>365024</t>
+          <t>365034</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>262255</t>
+          <t>262104</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>278528</t>
+          <t>279056</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>87,69%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>93,36%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>623777</t>
+          <t>624897</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>642862</t>
+          <t>642717</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>96,56%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8854</t>
+          <t>8292</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12061</t>
+          <t>12016</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25187</t>
+          <t>25086</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>14509</t>
+          <t>14310</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>29696</t>
+          <t>28518</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>315193</t>
+          <t>315755</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>322975</t>
+          <t>323006</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>234894</t>
+          <t>234995</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>248020</t>
+          <t>248065</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,32%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>554432</t>
+          <t>555610</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>569619</t>
+          <t>569818</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>97,55%</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5912</t>
+          <t>6165</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6881</t>
+          <t>6739</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17143</t>
+          <t>16745</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3113</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>25146</t>
+          <t>24513</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,28%</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>469512</t>
+          <t>469259</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>80421</t>
+          <t>80819</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90683</t>
+          <t>90825</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>82,43%</t>
+          <t>82,84%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>547842</t>
+          <t>548475</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>569875</t>
+          <t>571021</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>99,66%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>4877</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15310</t>
+          <t>15470</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>55462</t>
+          <t>55827</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>473562</t>
+          <t>488760</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>74,38%</t>
+          <t>76,77%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>55935</t>
+          <t>56559</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>639124</t>
+          <t>630175</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>53,73%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>520845</t>
+          <t>520685</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>532165</t>
+          <t>531278</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>163076</t>
+          <t>147878</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>581176</t>
+          <t>580811</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>533669</t>
+          <t>542618</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1116858</t>
+          <t>1116234</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,18%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>1118</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12231</t>
+          <t>10703</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19759</t>
+          <t>18714</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>51490</t>
+          <t>50526</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>25633</t>
+          <t>24416</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>59624</t>
+          <t>55625</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>8,76%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>198991</t>
+          <t>200519</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>209907</t>
+          <t>210104</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>372459</t>
+          <t>373423</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>404190</t>
+          <t>405235</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>575547</t>
+          <t>579546</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>609538</t>
+          <t>610755</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>96,16%</t>
         </is>
       </c>
     </row>
@@ -5098,12 +5098,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1410</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22042</t>
+          <t>21080</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22381</t>
+          <t>23424</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>41815</t>
+          <t>41229</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>27679</t>
+          <t>28064</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>53128</t>
+          <t>54010</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,23%</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>144719</t>
+          <t>145681</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165351</t>
+          <t>165412</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>447506</t>
+          <t>448092</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>466940</t>
+          <t>465897</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>602954</t>
+          <t>602072</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>628403</t>
+          <t>628018</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>95,72%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17474</t>
+          <t>17292</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>45646</t>
+          <t>45662</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>167554</t>
+          <t>169747</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>900949</t>
+          <t>879258</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>39,85%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>186936</t>
+          <t>188732</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>980665</t>
+          <t>1078143</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>25,15%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2034646</t>
+          <t>2034630</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2062818</t>
+          <t>2063000</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1305505</t>
+          <t>1327196</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2038900</t>
+          <t>2036707</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>59,17%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3306081</t>
+          <t>3208603</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4099810</t>
+          <t>4098014</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>77,12%</t>
+          <t>74,85%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>95,6%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_TIR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TIR-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la tiroides en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>4826</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>1763</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>9743</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8985</t>
+          <t>30236</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6668</t>
+          <t>22517</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11814</t>
+          <t>41046</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10313</t>
+          <t>35063</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7617</t>
+          <t>25690</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>13312</t>
+          <t>45442</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>161474</t>
+          <t>390561</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>160158</t>
+          <t>385644</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>162233</t>
+          <t>393624</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>99,55%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>159582</t>
+          <t>297390</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>156753</t>
+          <t>286580</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>161899</t>
+          <t>305109</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>805</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>321055</t>
+          <t>687950</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>318056</t>
+          <t>677571</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>323751</t>
+          <t>697323</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>96,45%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1381</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>8637</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9973</t>
+          <t>19618</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7553</t>
+          <t>13550</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>27756</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>11354</t>
+          <t>23088</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>8844</t>
+          <t>15914</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>14398</t>
+          <t>31147</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>330</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89044</t>
+          <t>340876</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87359</t>
+          <t>335710</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89821</t>
+          <t>343273</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>364</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>112695</t>
+          <t>267322</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>109768</t>
+          <t>259184</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>115115</t>
+          <t>273390</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>694</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>201739</t>
+          <t>608199</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>198695</t>
+          <t>600140</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>204249</t>
+          <t>615373</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>97,48%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>839</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3437</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12395</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7671</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18545</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>13234</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>8285</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>20251</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>2,23%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6417</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>4490</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>9183</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>14,9%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>8306</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>6081</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>11320</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>151995</t>
+          <t>259717</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>150447</t>
+          <t>256294</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>152966</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>98,36%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>99091</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>92941</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>103815</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>88,88%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>83,37%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>93,12%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>358809</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>351792</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>363758</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>96,44%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>94,56%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
           <t>97,77%</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>99,4%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>55200</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>52434</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>57127</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>89,59%</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>85,1%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>92,71%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>1244</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>207195</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>204181</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>209420</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>96,15%</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="inlineStr">
-        <is>
-          <t>94,75%</t>
-        </is>
-      </c>
-      <c r="W11" s="2" t="inlineStr">
-        <is>
-          <t>97,18%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>9310</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1804</t>
+          <t>5093</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>16248</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10208</t>
+          <t>45946</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7977</t>
+          <t>35692</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13083</t>
+          <t>57290</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13316</t>
+          <t>55256</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10540</t>
+          <t>43576</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>16683</t>
+          <t>67759</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>6,16%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>166611</t>
+          <t>600672</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>164515</t>
+          <t>593734</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>167915</t>
+          <t>604889</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>601</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>171982</t>
+          <t>444207</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>169107</t>
+          <t>432863</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>174213</t>
+          <t>454461</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>88,31%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>338593</t>
+          <t>1044879</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>335226</t>
+          <t>1032376</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>341369</t>
+          <t>1056559</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>96,04%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>5368</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>11608</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11033</t>
+          <t>33009</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8572</t>
+          <t>23855</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13874</t>
+          <t>42756</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>12209</t>
+          <t>38377</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>9239</t>
+          <t>28935</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>15267</t>
+          <t>48640</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,35%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73274</t>
+          <t>247973</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>72130</t>
+          <t>241733</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73986</t>
+          <t>251467</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>534</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>114383</t>
+          <t>375010</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>111542</t>
+          <t>365263</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>116844</t>
+          <t>384164</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>91,91%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>761</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>187658</t>
+          <t>622984</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>184600</t>
+          <t>612721</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>190628</t>
+          <t>632426</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>95,62%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,102 +2450,102 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>6459</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>1339</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2173</t>
+          <t>18892</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>36873</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4530</t>
+          <t>27576</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8312</t>
+          <t>50254</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>6837</t>
+          <t>43332</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4928</t>
+          <t>32153</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>9052</t>
+          <t>59568</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55006</t>
+          <t>163038</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53430</t>
+          <t>150605</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55535</t>
+          <t>168158</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>116361</t>
+          <t>509277</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>114289</t>
+          <t>495896</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>118071</t>
+          <t>518574</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>90,8%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>719</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>171367</t>
+          <t>672315</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>169152</t>
+          <t>656079</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>173276</t>
+          <t>683494</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>95,51%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>697</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546150</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546150</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546150</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>775</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>715647</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>715647</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>715647</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9479</t>
+          <t>30273</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6997</t>
+          <t>19493</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12431</t>
+          <t>44304</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>264</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>52857</t>
+          <t>178077</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>47178</t>
+          <t>158031</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>59201</t>
+          <t>199030</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>293</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>62336</t>
+          <t>208350</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>55876</t>
+          <t>183358</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>236643</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>5,63%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3943</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>697404</t>
+          <t>2002837</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>694452</t>
+          <t>1988806</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>699886</t>
+          <t>2013617</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4081</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>730202</t>
+          <t>1992298</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>723858</t>
+          <t>1971345</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>735881</t>
+          <t>2012344</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>8024</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1427605</t>
+          <t>3995135</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1420839</t>
+          <t>3966842</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1434065</t>
+          <t>4020127</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>95,64%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170375</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170375</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170375</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4830</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203485</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203485</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203485</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en Andalucia (tasa de respuesta: 99,88%)</t>
+          <t>Consumo de medicamentos para la tiroides en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4356</t>
+          <t>7073</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9165</t>
+          <t>11990</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26843</t>
+          <t>15441</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19845</t>
+          <t>10381</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>36797</t>
+          <t>21811</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>31198</t>
+          <t>22514</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>22867</t>
+          <t>16005</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>40687</t>
+          <t>30665</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,36%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>504</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>362327</t>
+          <t>288450</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>357518</t>
+          <t>283533</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>365034</t>
+          <t>291592</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>272058</t>
+          <t>261259</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>262104</t>
+          <t>254889</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>279056</t>
+          <t>266319</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,02%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>945</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>634386</t>
+          <t>549708</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>624897</t>
+          <t>541557</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>642717</t>
+          <t>556217</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>97,2%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3333</t>
+          <t>192</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8292</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17581</t>
+          <t>12547</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12016</t>
+          <t>7958</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25086</t>
+          <t>18104</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>20913</t>
+          <t>12739</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>14310</t>
+          <t>8069</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28518</t>
+          <t>18949</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>320714</t>
+          <t>195580</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>315755</t>
+          <t>194665</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>323006</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>99,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>370</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>242500</t>
+          <t>219432</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>234995</t>
+          <t>213875</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>248065</t>
+          <t>224021</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>716</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>563215</t>
+          <t>415011</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>555610</t>
+          <t>408801</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>569818</t>
+          <t>419681</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>98,11%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>2836</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>766</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6165</t>
+          <t>6618</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11027</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6739</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16745</t>
+          <t>8307</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12012</t>
+          <t>7165</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>24513</t>
+          <t>12106</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>474439</t>
+          <t>178035</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>469259</t>
+          <t>174253</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180105</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>98,43%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,58%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86537</t>
+          <t>78471</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>80819</t>
+          <t>74493</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90825</t>
+          <t>80807</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,7%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>82,84%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>490</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>560976</t>
+          <t>256507</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>548475</t>
+          <t>251566</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>571021</t>
+          <t>259833</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>98,54%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4407,102 +4407,102 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4877</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15470</t>
+          <t>10689</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>246107</t>
+          <t>20913</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>55827</t>
+          <t>14540</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>488760</t>
+          <t>29745</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>76,77%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>254974</t>
+          <t>26757</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>56559</t>
+          <t>20118</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>630175</t>
+          <t>35666</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>5,71%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>569</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>527288</t>
+          <t>302589</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>520685</t>
+          <t>297744</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>531278</t>
+          <t>305601</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>514</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>390531</t>
+          <t>295050</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>147878</t>
+          <t>286218</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>580811</t>
+          <t>301423</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>61,34%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>90,59%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>917819</t>
+          <t>597639</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>542618</t>
+          <t>588730</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1116234</t>
+          <t>604278</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>78,26%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>96,78%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4517</t>
+          <t>1461</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10703</t>
+          <t>5101</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33991</t>
+          <t>10400</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18714</t>
+          <t>6602</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>50526</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>38508</t>
+          <t>11861</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>24416</t>
+          <t>7592</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>55625</t>
+          <t>17901</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>5,86%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>206705</t>
+          <t>148824</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>200519</t>
+          <t>145184</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>210104</t>
+          <t>149983</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>99,8%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>247</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>389958</t>
+          <t>144668</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>373423</t>
+          <t>138301</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>405235</t>
+          <t>148466</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>504</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>596663</t>
+          <t>293493</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>579546</t>
+          <t>287453</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>610755</t>
+          <t>297762</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>97,51%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6977</t>
+          <t>770</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21080</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30985</t>
+          <t>272</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23424</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>41229</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>37963</t>
+          <t>1043</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>28064</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>54010</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>19,46%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>159784</t>
+          <t>8578</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>145681</t>
+          <t>5047</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165412</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>53,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>458336</t>
+          <t>11162</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>448092</t>
+          <t>9914</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>465897</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>86,7%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>618119</t>
+          <t>19739</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>602072</t>
+          <t>16738</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>628018</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>80,54%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489321</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489321</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489321</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656082</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656082</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656082</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>29035</t>
+          <t>18177</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17292</t>
+          <t>12504</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>45662</t>
+          <t>26376</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>366533</t>
+          <t>63902</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>169747</t>
+          <t>52260</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>879258</t>
+          <t>76786</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>155</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>395569</t>
+          <t>82079</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>188732</t>
+          <t>69223</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1078143</t>
+          <t>97496</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
           <t>4,4%</t>
-        </is>
-      </c>
-      <c r="W22" s="2" t="inlineStr">
-        <is>
-          <t>25,15%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2051257</t>
+          <t>1122054</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2034630</t>
+          <t>1113855</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2063000</t>
+          <t>1127727</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2699</t>
+          <t>1737</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1839921</t>
+          <t>1010043</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1327196</t>
+          <t>997159</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2036707</t>
+          <t>1021685</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>83,39%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>60,15%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4537</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>3891177</t>
+          <t>2132097</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3208603</t>
+          <t>2116680</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4098014</t>
+          <t>2144953</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>74,85%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>96,87%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2206454</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2206454</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2206454</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4830</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4286746</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4286746</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4286746</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para la tiroides en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7073</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3931</t>
+          <t>568</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11990</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15441</t>
+          <t>8985</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10381</t>
+          <t>6668</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21811</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>22514</t>
+          <t>10313</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16005</t>
+          <t>7617</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>30665</t>
+          <t>13312</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>848</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>288450</t>
+          <t>161474</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>283533</t>
+          <t>160158</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>291592</t>
+          <t>162233</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>828</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>261259</t>
+          <t>159582</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>254889</t>
+          <t>156753</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>266319</t>
+          <t>161899</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>549708</t>
+          <t>321055</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>541557</t>
+          <t>318056</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>556217</t>
+          <t>323751</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>97,7%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>604</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12547</t>
+          <t>9973</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7958</t>
+          <t>7553</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18104</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>12739</t>
+          <t>11354</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>8069</t>
+          <t>8844</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>18949</t>
+          <t>14398</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>195580</t>
+          <t>89044</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>194665</t>
+          <t>87359</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>89821</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>617</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>219432</t>
+          <t>112695</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>213875</t>
+          <t>109768</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>224021</t>
+          <t>115115</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>415011</t>
+          <t>201739</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>408801</t>
+          <t>198695</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>419681</t>
+          <t>204249</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>95,85%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2836</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>918</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6618</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4329</t>
+          <t>6417</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>4490</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8307</t>
+          <t>9183</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>45</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7165</t>
+          <t>8306</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>6081</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>12106</t>
+          <t>11320</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>5,25%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>912</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>178035</t>
+          <t>151995</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>174253</t>
+          <t>150447</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>180105</t>
+          <t>152966</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>332</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78471</t>
+          <t>55200</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74493</t>
+          <t>52434</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80807</t>
+          <t>57127</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>85,1%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>256507</t>
+          <t>207195</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>251566</t>
+          <t>204181</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>259833</t>
+          <t>209420</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>97,18%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10689</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20913</t>
+          <t>10208</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14540</t>
+          <t>7977</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29745</t>
+          <t>13083</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>26757</t>
+          <t>13316</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20118</t>
+          <t>10540</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>35666</t>
+          <t>16683</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>987</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>302589</t>
+          <t>166611</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>297744</t>
+          <t>164515</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>305601</t>
+          <t>167915</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>972</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>295050</t>
+          <t>171982</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>286218</t>
+          <t>169107</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>301423</t>
+          <t>174213</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>597639</t>
+          <t>338593</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>588730</t>
+          <t>335226</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>604278</t>
+          <t>341369</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>97,0%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1461</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>465</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5101</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10400</t>
+          <t>11033</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6602</t>
+          <t>8572</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>13874</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>11861</t>
+          <t>12209</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7592</t>
+          <t>9239</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>17901</t>
+          <t>15267</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>7,64%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>148824</t>
+          <t>73274</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>145184</t>
+          <t>72130</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>149983</t>
+          <t>73986</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>679</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>144668</t>
+          <t>114383</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>138301</t>
+          <t>111542</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>148466</t>
+          <t>116844</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>88,94%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>293493</t>
+          <t>187658</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>287453</t>
+          <t>184600</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>297762</t>
+          <t>190628</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>95,38%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>597</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4301</t>
+          <t>2173</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>46,01%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>8312</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>6837</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4928</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4044</t>
+          <t>9052</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8578</t>
+          <t>55006</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5047</t>
+          <t>53430</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55535</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>53,99%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>653</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11162</t>
+          <t>116361</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>9914</t>
+          <t>114289</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>118071</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,7%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>918</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>19739</t>
+          <t>171367</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>16738</t>
+          <t>169152</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>173276</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>80,54%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,23%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>18177</t>
+          <t>9479</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12504</t>
+          <t>6997</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26376</t>
+          <t>12431</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>63902</t>
+          <t>52857</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>52260</t>
+          <t>47178</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>76786</t>
+          <t>59201</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>365</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>82079</t>
+          <t>62336</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>69223</t>
+          <t>55876</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>97496</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1122054</t>
+          <t>697404</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1113855</t>
+          <t>694452</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1127727</t>
+          <t>699886</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1010043</t>
+          <t>730202</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>997159</t>
+          <t>723858</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1021685</t>
+          <t>735881</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3769</t>
+          <t>8024</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2132097</t>
+          <t>1427605</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2116680</t>
+          <t>1420839</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2144953</t>
+          <t>1434065</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>96,25%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
